--- a/doc/ue_client_ds_握手过程.xlsx
+++ b/doc/ue_client_ds_握手过程.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D337C8DB-8D82-40DA-9D0A-66050D07C7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FA5983-A8E7-4BA2-AFA0-91EE0DB4536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="链接超时" sheetId="2" r:id="rId2"/>
+    <sheet name="各种异常回调" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>和DS握手这部分得彻底搞明白且需要加上足够得日志，否则一旦报链接不上就很麻烦，不好定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +319,51 @@
   <si>
     <t>最终场景加载完之后触发LoadMapCompleted，会发送NMT_Join</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Event triggered after a server travel failure of any kind has occurred */</t>
+  </si>
+  <si>
+    <t>FOnTravelFailure&amp; OnTravelFailure() { return TravelFailureEvent; }</t>
+  </si>
+  <si>
+    <t>/** Called by internal engine systems after a travel failure has occurred */</t>
+  </si>
+  <si>
+    <t>void BroadcastTravelFailure(UWorld* InWorld, ETravelFailure::Type FailureType, const FString&amp; ErrorString = TEXT(""))</t>
+  </si>
+  <si>
+    <t>UE_LOGSTATUS(Warning, TEXT("Travel failed, type: %s, reason: \"%s\""), *UEnum::GetValueAsString(FailureType), *ErrorString);</t>
+  </si>
+  <si>
+    <t>TravelFailureEvent.Broadcast(InWorld, FailureType, ErrorString);</t>
+  </si>
+  <si>
+    <t>/** Event triggered after a network failure of any kind has occurred */</t>
+  </si>
+  <si>
+    <t>FOnNetworkFailure&amp; OnNetworkFailure() { return NetworkFailureEvent; }</t>
+  </si>
+  <si>
+    <t>/** Called by internal engine systems after a network failure has occurred */</t>
+  </si>
+  <si>
+    <t>ENGINE_API void BroadcastNetworkFailure(UWorld * World, UNetDriver *NetDriver, ENetworkFailure::Type FailureType, const FString&amp; ErrorString = TEXT(""));</t>
+  </si>
+  <si>
+    <t>/** Event triggered after network lag is being experienced or lag has ended */</t>
+  </si>
+  <si>
+    <t>FOnNetworkLagStateChanged&amp; OnNetworkLagStateChanged() { return NetworkLagStateChangedEvent; }</t>
+  </si>
+  <si>
+    <t>/** Called by internal engine systems after network lag has been detected */</t>
+  </si>
+  <si>
+    <t>void BroadcastNetworkLagStateChanged(UWorld * World, UNetDriver *NetDriver, ENetworkLagState::Type LagType)</t>
+  </si>
+  <si>
+    <t>NetworkLagStateChangedEvent.Broadcast(World, NetDriver, LagType);</t>
   </si>
 </sst>
 </file>
@@ -654,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -1404,4 +1450,115 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60431B10-7528-490F-9D8D-C5C73AC22D40}">
+  <dimension ref="C4:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_client_ds_握手过程.xlsx
+++ b/doc/ue_client_ds_握手过程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FA5983-A8E7-4BA2-AFA0-91EE0DB4536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0481E614-82B4-4E53-AF81-BFED375CC345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>和DS握手这部分得彻底搞明白且需要加上足够得日志，否则一旦报链接不上就很麻烦，不好定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,14 @@
   </si>
   <si>
     <t>NetworkLagStateChangedEvent.Broadcast(World, NetDriver, LagType);</t>
+  </si>
+  <si>
+    <t>!!!尤其是所有握手阶段，底层Socket sendto得返回值，都需要详细记录（这部分需要修改一下引擎，平时需要记录sendto errno，但是握手阶段需要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！线上得网络环境是复杂得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -700,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:V117"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,6 +717,14 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1456,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60431B10-7528-490F-9D8D-C5C73AC22D40}">
   <dimension ref="C4:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
